--- a/biology/Botanique/Atina_(vin)/Atina_(vin).xlsx
+++ b/biology/Botanique/Atina_(vin)/Atina_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins d'Atina sont des vins produits dans la région du Latium, bénéficiant d'une appellation DOC.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 1860 Pasquale Visocchi, le notable du village ramène du bordelais différents pieds de vignes dont la Syrah, le petit verdot, le Cabernet Sauvignon et à titre expérimentatif les plante dans la région d'Atina.
 Le cabernet sauvignon s'adapte particulièrement bien et rapidement le vin rouge d'Atina acquiert une réputation dans la région, comme étant un puissant et charnu.
@@ -544,7 +558,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cinq vins bénéficient de cette appellation
 Atina Rosso
@@ -579,7 +595,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de production est limitée aux communes suivantes
 Atina, Gallinaro, Belmonte Castello, Picinisco, Sant'Elia Fiumerapido, Alvito, Villa Latina, San Donato Val di Comino, Vicalvi, Casalattico, Casalvieri, Settefrati.
